--- a/My FT_PLCWiring.xlsx
+++ b/My FT_PLCWiring.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\Robotics 1\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\Factory-4.0-HMI-Sp22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FE3E57-A950-4856-B708-308232CC3A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143076FE-9508-4A32-89EF-D60EEAD71D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E408BEA9-7463-0243-985F-813A304FC86A}"/>
+    <workbookView xWindow="5115" yWindow="465" windowWidth="21600" windowHeight="11295" xr2:uid="{E408BEA9-7463-0243-985F-813A304FC86A}"/>
   </bookViews>
   <sheets>
     <sheet name="PLC_Variablen" sheetId="1" r:id="rId1"/>
@@ -2280,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="F97" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="9">
-        <v>816</v>
+        <v>416</v>
       </c>
       <c r="I3" t="s">
         <v>13</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="9">
-        <v>817</v>
+        <v>417</v>
       </c>
       <c r="I4" t="s">
         <v>13</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="9">
-        <v>818</v>
+        <v>418</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <v>819</v>
+        <v>419</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <v>820</v>
+        <v>420</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <v>821</v>
+        <v>421</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="9">
-        <v>822</v>
+        <v>422</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="9">
-        <v>823</v>
+        <v>423</v>
       </c>
       <c r="I10" t="s">
         <v>13</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="9">
-        <v>824</v>
+        <v>424</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="9">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="I12" t="s">
         <v>13</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="9">
-        <v>801</v>
+        <v>401</v>
       </c>
       <c r="I13" t="s">
         <v>13</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="9">
-        <v>802</v>
+        <v>402</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <v>803</v>
+        <v>403</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>804</v>
+        <v>404</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="9">
-        <v>805</v>
+        <v>405</v>
       </c>
       <c r="I17" t="s">
         <v>13</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>806</v>
+        <v>406</v>
       </c>
       <c r="I18" t="s">
         <v>13</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="9">
-        <v>807</v>
+        <v>407</v>
       </c>
       <c r="I19" t="s">
         <v>13</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="9">
-        <v>808</v>
+        <v>408</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="9">
-        <v>809</v>
+        <v>409</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="9">
-        <v>810</v>
+        <v>410</v>
       </c>
       <c r="I22" t="s">
         <v>13</v>
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="9">
-        <v>811</v>
+        <v>411</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -3302,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="9">
-        <v>812</v>
+        <v>412</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="9">
-        <v>813</v>
+        <v>413</v>
       </c>
       <c r="I25" t="s">
         <v>13</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="9">
-        <v>814</v>
+        <v>414</v>
       </c>
       <c r="I27" t="s">
         <v>282</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="9">
-        <v>815</v>
+        <v>415</v>
       </c>
       <c r="I28" t="s">
         <v>282</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="9">
-        <v>411</v>
+        <v>211</v>
       </c>
       <c r="I30" t="s">
         <v>13</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="9">
-        <v>412</v>
+        <v>212</v>
       </c>
       <c r="I31" t="s">
         <v>13</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="9">
-        <v>413</v>
+        <v>213</v>
       </c>
       <c r="I32" t="s">
         <v>13</v>
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="9">
-        <v>414</v>
+        <v>214</v>
       </c>
       <c r="I33" t="s">
         <v>13</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="9">
-        <v>415</v>
+        <v>215</v>
       </c>
       <c r="I34" t="s">
         <v>13</v>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="9">
-        <v>416</v>
+        <v>216</v>
       </c>
       <c r="I35" t="s">
         <v>13</v>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="9">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="I36" t="s">
         <v>13</v>
@@ -3780,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="9">
-        <v>418</v>
+        <v>218</v>
       </c>
       <c r="I37" t="s">
         <v>13</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="H38" s="9">
-        <v>419</v>
+        <v>219</v>
       </c>
       <c r="I38" t="s">
         <v>13</v>
@@ -3862,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="9">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I39" t="s">
         <v>13</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="9">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="I40" t="s">
         <v>13</v>
@@ -3944,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="9">
-        <v>402</v>
+        <v>202</v>
       </c>
       <c r="I41" t="s">
         <v>13</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="9">
-        <v>403</v>
+        <v>203</v>
       </c>
       <c r="I42" t="s">
         <v>13</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="9">
-        <v>404</v>
+        <v>204</v>
       </c>
       <c r="I43" t="s">
         <v>13</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="9">
-        <v>405</v>
+        <v>205</v>
       </c>
       <c r="I44" t="s">
         <v>13</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="9">
-        <v>406</v>
+        <v>206</v>
       </c>
       <c r="I45" t="s">
         <v>13</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="9">
-        <v>407</v>
+        <v>207</v>
       </c>
       <c r="I46" t="s">
         <v>13</v>
@@ -4193,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="H48" s="9">
-        <v>408</v>
+        <v>208</v>
       </c>
       <c r="I48" t="s">
         <v>282</v>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="9">
-        <v>409</v>
+        <v>209</v>
       </c>
       <c r="I49" t="s">
         <v>282</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="H50" s="9">
-        <v>410</v>
+        <v>210</v>
       </c>
       <c r="I50" t="s">
         <v>282</v>
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="H78" s="9">
-        <v>1605</v>
+        <v>805</v>
       </c>
       <c r="I78" t="s">
         <v>13</v>
@@ -5450,7 +5450,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="9">
-        <v>1606</v>
+        <v>806</v>
       </c>
       <c r="I79" t="s">
         <v>13</v>
@@ -5491,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="9">
-        <v>1607</v>
+        <v>807</v>
       </c>
       <c r="I80" t="s">
         <v>13</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="9">
-        <v>1608</v>
+        <v>1600</v>
       </c>
       <c r="I81" t="s">
         <v>203</v>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="H82" s="9">
-        <v>1609</v>
+        <v>809</v>
       </c>
       <c r="I82" t="s">
         <v>13</v>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="9">
-        <v>1610</v>
+        <v>810</v>
       </c>
       <c r="I83" t="s">
         <v>13</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="H84" s="9">
-        <v>1611</v>
+        <v>811</v>
       </c>
       <c r="I84" t="s">
         <v>13</v>
@@ -5699,7 +5699,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="9">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="I85" t="s">
         <v>13</v>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="H86" s="9">
-        <v>1601</v>
+        <v>801</v>
       </c>
       <c r="I86" t="s">
         <v>13</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="9">
-        <v>1602</v>
+        <v>802</v>
       </c>
       <c r="I87" t="s">
         <v>13</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="H88" s="9">
-        <v>1603</v>
+        <v>803</v>
       </c>
       <c r="I88" t="s">
         <v>13</v>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="9">
-        <v>1604</v>
+        <v>804</v>
       </c>
       <c r="I89" t="s">
         <v>13</v>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="9">
-        <v>1210</v>
+        <v>610</v>
       </c>
       <c r="I91" t="s">
         <v>13</v>
@@ -5945,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="H92" s="9">
-        <v>1211</v>
+        <v>611</v>
       </c>
       <c r="I92" t="s">
         <v>13</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="9">
-        <v>1212</v>
+        <v>612</v>
       </c>
       <c r="I93" t="s">
         <v>13</v>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="9">
-        <v>1213</v>
+        <v>613</v>
       </c>
       <c r="I94" t="s">
         <v>13</v>
@@ -6068,7 +6068,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="9">
-        <v>1214</v>
+        <v>1200</v>
       </c>
       <c r="I95" t="s">
         <v>203</v>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="9">
-        <v>1215</v>
+        <v>615</v>
       </c>
       <c r="I96" t="s">
         <v>13</v>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="9">
-        <v>1216</v>
+        <v>616</v>
       </c>
       <c r="I97" t="s">
         <v>13</v>
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="H98" s="9">
-        <v>1217</v>
+        <v>617</v>
       </c>
       <c r="I98" t="s">
         <v>13</v>
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="H99" s="9">
-        <v>1218</v>
+        <v>618</v>
       </c>
       <c r="I99" t="s">
         <v>13</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="9">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="I100" t="s">
         <v>13</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="9">
-        <v>1201</v>
+        <v>601</v>
       </c>
       <c r="I101" t="s">
         <v>13</v>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="9">
-        <v>1202</v>
+        <v>602</v>
       </c>
       <c r="I102" t="s">
         <v>13</v>
@@ -6399,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="H103" s="9">
-        <v>1203</v>
+        <v>603</v>
       </c>
       <c r="I103" t="s">
         <v>13</v>
@@ -6440,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="9">
-        <v>1204</v>
+        <v>604</v>
       </c>
       <c r="I104" t="s">
         <v>13</v>
@@ -6484,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="9">
-        <v>1205</v>
+        <v>605</v>
       </c>
       <c r="I105" t="s">
         <v>13</v>
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="H106" s="9">
-        <v>1206</v>
+        <v>606</v>
       </c>
       <c r="I106" t="s">
         <v>13</v>
@@ -6572,7 +6572,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="9">
-        <v>1207</v>
+        <v>607</v>
       </c>
       <c r="I107" t="s">
         <v>13</v>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="9">
-        <v>1208</v>
+        <v>608</v>
       </c>
       <c r="I109" t="s">
         <v>282</v>
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="H110" s="9">
-        <v>1209</v>
+        <v>609</v>
       </c>
       <c r="I110" t="s">
         <v>282</v>

--- a/My FT_PLCWiring.xlsx
+++ b/My FT_PLCWiring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\Factory-4.0-HMI-Sp22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143076FE-9508-4A32-89EF-D60EEAD71D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7FC3B2-D169-4592-A0F8-B755E40E52E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="465" windowWidth="21600" windowHeight="11295" xr2:uid="{E408BEA9-7463-0243-985F-813A304FC86A}"/>
+    <workbookView xWindow="-180" yWindow="5655" windowWidth="21600" windowHeight="11295" xr2:uid="{E408BEA9-7463-0243-985F-813A304FC86A}"/>
   </bookViews>
   <sheets>
     <sheet name="PLC_Variablen" sheetId="1" r:id="rId1"/>
@@ -2280,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F97" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="F58" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/My FT_PLCWiring.xlsx
+++ b/My FT_PLCWiring.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacob\Documents\GitHub\Factory-4.0-HMI-Sp22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7FC3B2-D169-4592-A0F8-B755E40E52E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68915640-E178-41A3-BA59-60D68664B468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="5655" windowWidth="21600" windowHeight="11295" xr2:uid="{E408BEA9-7463-0243-985F-813A304FC86A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E408BEA9-7463-0243-985F-813A304FC86A}"/>
   </bookViews>
   <sheets>
     <sheet name="PLC_Variablen" sheetId="1" r:id="rId1"/>
@@ -2280,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F58" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
